--- a/biology/Botanique/Glehnia_littoralis/Glehnia_littoralis.xlsx
+++ b/biology/Botanique/Glehnia_littoralis/Glehnia_littoralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glehnia littoralis, la Gléhnie des plages, est une espèce de plantes à fleurs de la famille des Apiaceae, la seule espèce reconnue du genre Glehnia.
 </t>
@@ -511,13 +523,15 @@
           <t>Nom et distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette plante se nomme en français « Gléhnie des plages »[2], en anglais Coastal glehnia[3]. « Gléhnie à fruits lisses »[4] désigne la sous-espèce Glehnia littoralis subsp. leiocarpa (Mathias) Hultén[5], propre à la côte américaine (Californie[6], Canada[7]) (en anglais American silvertop et Beach Silvertop).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette plante se nomme en français « Gléhnie des plages », en anglais Coastal glehnia. « Gléhnie à fruits lisses » désigne la sous-espèce Glehnia littoralis subsp. leiocarpa (Mathias) Hultén, propre à la côte américaine (Californie, Canada) (en anglais American silvertop et Beach Silvertop).
 Elle est spontanée des littoraux sableux du Pacifique nord (de la Chine à la Russie, de la Californie à l'Alaska).
 Les sources francophones la concernant sont rares.
-L'espèce a été initialement classée dans le genre Cymopterus sous le basionyme Cymopterus littoralis A.Gray[8].
-Glehnia littoralis a pour synonymes[8] :
+L'espèce a été initialement classée dans le genre Cymopterus sous le basionyme Cymopterus littoralis A.Gray.
+Glehnia littoralis a pour synonymes :
 Cymopterus glaber (A.Gray) Black
 Cymopterus littoralis A.Gray
 Glehnia littoralis (A.Gray) F.Schmidt ex Miq.
@@ -550,11 +564,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace, basse (5 à 25 cm).
-Elle développe dès la germination une longue racine pivotante pouvant atteindre 70 cm[9]. 
-Les composants aromatiques sont partiellement décrits[10], le séquençage peu avancé[11].
+Elle développe dès la germination une longue racine pivotante pouvant atteindre 70 cm. 
+Les composants aromatiques sont partiellement décrits, le séquençage peu avancé.
 </t>
         </is>
       </c>
@@ -583,13 +599,15 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est cultivée en Chine[12] et au Japon[13] où il existe une société pour la protection de la plante sauvage[14]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est cultivée en Chine et au Japon où il existe une société pour la protection de la plante sauvage. 
 Glehnia littoralis est une plante consommée :
-comme légume ou condiment, au Japon, toutes les parties de la plante jeune[15] récoltée de mars à mai[16] sont cuisinées principalement en tenpura et dans les bouillons [17];
-dans la médecine traditionnelle chinoise et coréenne la racine est réputée analgésique, antibactérienne, antipyrétique, diaphorétique et expectorante. En Corée la plante serait utilisée dans le traitement des migraines[17]. Des actions antiinflammatoires ont été mises en évidence[18] et publiées[19],[20], un effet anti-prolifération des cellules MCF-7 dans les cancers du sein est signalé [21]. Des glycosides propres à Glehnia littoralis, les glehlinosides [22] ont un effet antioxydant[23].
-La sous-espèce leiocarpa est, quant à elle, une plante ethnopharmaceutique de la Colombie-Britannique avec une action antibactérienne et fongicide[24].
+comme légume ou condiment, au Japon, toutes les parties de la plante jeune récoltée de mars à mai sont cuisinées principalement en tenpura et dans les bouillons ;
+dans la médecine traditionnelle chinoise et coréenne la racine est réputée analgésique, antibactérienne, antipyrétique, diaphorétique et expectorante. En Corée la plante serait utilisée dans le traitement des migraines. Des actions antiinflammatoires ont été mises en évidence et publiées un effet anti-prolifération des cellules MCF-7 dans les cancers du sein est signalé . Des glycosides propres à Glehnia littoralis, les glehlinosides  ont un effet antioxydant.
+La sous-espèce leiocarpa est, quant à elle, une plante ethnopharmaceutique de la Colombie-Britannique avec une action antibactérienne et fongicide.
 </t>
         </is>
       </c>
